--- a/z0bug_odoo/data/product_template.xlsx
+++ b/z0bug_odoo/data/product_template.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="204">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -73,6 +73,12 @@
     <t xml:space="preserve">route_ids</t>
   </si>
   <si>
+    <t xml:space="preserve">intrastat_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intrastat_code_id</t>
+  </si>
+  <si>
     <t xml:space="preserve">z0bug.product_template_0</t>
   </si>
   <si>
@@ -112,6 +118,12 @@
     <t xml:space="preserve">purchase.route_warehouse0_buy</t>
   </si>
   <si>
+    <t xml:space="preserve">exclude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.istat_84401010</t>
+  </si>
+  <si>
     <t xml:space="preserve">z0bug.product_template_1</t>
   </si>
   <si>
@@ -133,6 +145,12 @@
     <t xml:space="preserve">0.1</t>
   </si>
   <si>
+    <t xml:space="preserve">good</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.istat_84401020</t>
+  </si>
+  <si>
     <t xml:space="preserve">z0bug.product_template_2</t>
   </si>
   <si>
@@ -151,6 +169,9 @@
     <t xml:space="preserve">0.2</t>
   </si>
   <si>
+    <t xml:space="preserve">z0bug.istat_84401030</t>
+  </si>
+  <si>
     <t xml:space="preserve">z0bug.product_template_3</t>
   </si>
   <si>
@@ -172,6 +193,9 @@
     <t xml:space="preserve">0.15</t>
   </si>
   <si>
+    <t xml:space="preserve">z0bug.istat_84401040</t>
+  </si>
+  <si>
     <t xml:space="preserve">z0bug.product_template_4</t>
   </si>
   <si>
@@ -532,6 +556,9 @@
     <t xml:space="preserve">z0bug.coa_621200</t>
   </si>
   <si>
+    <t xml:space="preserve">z0bug.istat_582929</t>
+  </si>
+  <si>
     <t xml:space="preserve">z0bug.product_template_24</t>
   </si>
   <si>
@@ -568,6 +595,9 @@
     <t xml:space="preserve">0.72</t>
   </si>
   <si>
+    <t xml:space="preserve">z0bug.istat_84439910</t>
+  </si>
+  <si>
     <t xml:space="preserve">z0bug.product_template_27</t>
   </si>
   <si>
@@ -577,6 +607,9 @@
     <t xml:space="preserve">Consegna gratuita</t>
   </si>
   <si>
+    <t xml:space="preserve">misc</t>
+  </si>
+  <si>
     <t xml:space="preserve">z0bug.product_template_SB</t>
   </si>
   <si>
@@ -596,6 +629,9 @@
   </si>
   <si>
     <t xml:space="preserve">z0bug.coa_731140</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.istat_582913</t>
   </si>
 </sst>
 </file>
@@ -605,7 +641,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -629,8 +665,14 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="8"/>
       <color rgb="FF000000"/>
+      <name val="arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -684,7 +726,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -694,6 +736,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -714,31 +760,38 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q30"/>
+  <dimension ref="A1:S30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q1" activeCellId="0" sqref="Q:Q"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="Q11" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="Q1" activeCellId="0" sqref="Q1"/>
+      <selection pane="bottomLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+      <selection pane="bottomRight" activeCell="S30" activeCellId="0" sqref="S30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="10" style="0" width="24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="10" style="1" width="24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="39.51"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="8.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="13.04"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="20" style="1" width="8.54"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -790,1363 +843,1531 @@
       <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>31</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>31</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="G4" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>31</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L5" s="2" t="s">
+      <c r="H6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="K6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="K7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="O5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="2" t="s">
+      <c r="L7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L6" s="2" t="s">
+      <c r="H8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="M6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="O7" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="L8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N8" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="2" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>31</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>31</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>31</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>31</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>31</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>109</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>31</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>31</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K16" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="L16" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>31</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>31</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" s="2" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>31</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>31</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" s="2" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>109</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>109</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="H22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J22" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>140</v>
-      </c>
       <c r="K22" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>109</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>31</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>31</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="E25" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>31</v>
+      </c>
+      <c r="R25" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="S25" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>31</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S26" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E27" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
       <c r="Q27" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>31</v>
+      </c>
+      <c r="R27" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="S27" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>31</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S28" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="D29" s="2" t="n">
         <v>0</v>
@@ -2155,76 +2376,88 @@
         <v>0</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="R29" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="S29" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
+      <c r="R30" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="S30" s="1" t="s">
+        <v>203</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/z0bug_odoo/data/product_template.xlsx
+++ b/z0bug_odoo/data/product_template.xlsx
@@ -115,13 +115,13 @@
     <t xml:space="preserve">l10n_it_conai.ca</t>
   </si>
   <si>
-    <t xml:space="preserve">purchase.route_warehouse0_buy</t>
+    <t xml:space="preserve">purchase_stock.route_warehouse0_buy</t>
   </si>
   <si>
     <t xml:space="preserve">exclude</t>
   </si>
   <si>
-    <t xml:space="preserve">z0bug.istat_84401010</t>
+    <t xml:space="preserve">external.84401010</t>
   </si>
   <si>
     <t xml:space="preserve">z0bug.product_template_1</t>
@@ -148,7 +148,7 @@
     <t xml:space="preserve">good</t>
   </si>
   <si>
-    <t xml:space="preserve">z0bug.istat_84401020</t>
+    <t xml:space="preserve">external.84401020</t>
   </si>
   <si>
     <t xml:space="preserve">z0bug.product_template_2</t>
@@ -169,7 +169,7 @@
     <t xml:space="preserve">0.2</t>
   </si>
   <si>
-    <t xml:space="preserve">z0bug.istat_84401030</t>
+    <t xml:space="preserve">external.84401030</t>
   </si>
   <si>
     <t xml:space="preserve">z0bug.product_template_3</t>
@@ -193,7 +193,7 @@
     <t xml:space="preserve">0.15</t>
   </si>
   <si>
-    <t xml:space="preserve">z0bug.istat_84401040</t>
+    <t xml:space="preserve">external.84401040</t>
   </si>
   <si>
     <t xml:space="preserve">z0bug.product_template_4</t>
@@ -349,7 +349,7 @@
     <t xml:space="preserve">0.02</t>
   </si>
   <si>
-    <t xml:space="preserve">purchase.route_warehouse0_buy,stock.route_warehouse0_mto</t>
+    <t xml:space="preserve">purchase_stock.route_warehouse0_buy,stock.route_warehouse0_mto</t>
   </si>
   <si>
     <t xml:space="preserve">z0bug.product_template_12</t>
@@ -556,7 +556,7 @@
     <t xml:space="preserve">z0bug.coa_621200</t>
   </si>
   <si>
-    <t xml:space="preserve">z0bug.istat_582929</t>
+    <t xml:space="preserve">external.582929</t>
   </si>
   <si>
     <t xml:space="preserve">z0bug.product_template_24</t>
@@ -595,7 +595,7 @@
     <t xml:space="preserve">0.72</t>
   </si>
   <si>
-    <t xml:space="preserve">z0bug.istat_84439910</t>
+    <t xml:space="preserve">external.84439910</t>
   </si>
   <si>
     <t xml:space="preserve">z0bug.product_template_27</t>
@@ -631,7 +631,7 @@
     <t xml:space="preserve">z0bug.coa_731140</t>
   </si>
   <si>
-    <t xml:space="preserve">z0bug.istat_582913</t>
+    <t xml:space="preserve">external.582913</t>
   </si>
 </sst>
 </file>
@@ -763,11 +763,11 @@
   <dimension ref="A1:S30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="Q11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="Q1" activeCellId="0" sqref="Q1"/>
-      <selection pane="bottomLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="S30" activeCellId="0" sqref="S30"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="S1" activeCellId="1" sqref="S2:S30 S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2359,7 +2359,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
         <v>192</v>
       </c>
@@ -2402,6 +2402,7 @@
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
+      <c r="Q29" s="0"/>
       <c r="R29" s="3" t="s">
         <v>195</v>
       </c>

--- a/z0bug_odoo/data/product_template.xlsx
+++ b/z0bug_odoo/data/product_template.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="207">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -241,13 +241,22 @@
     <t xml:space="preserve">FF</t>
   </si>
   <si>
-    <t xml:space="preserve">Prodotto Phi</t>
+    <t xml:space="preserve">Prodotto Phi (elettronico)</t>
   </si>
   <si>
     <t xml:space="preserve">4.68</t>
   </si>
   <si>
     <t xml:space="preserve">2.34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.tax_a17c6cv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.tax_a17c6ca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l10n_it_conai.fascia_pla</t>
   </si>
   <si>
     <t xml:space="preserve">0.3</t>
@@ -726,20 +735,24 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -755,19 +768,125 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:S30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="Q1" activeCellId="0" sqref="Q1"/>
+      <selection pane="topRight" activeCell="J1" activeCellId="0" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S1" activeCellId="1" sqref="S2:S30 S1"/>
+      <selection pane="bottomRight" activeCell="U8" activeCellId="0" sqref="U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -787,7 +906,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="39.51"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="8.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="13.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="13.03"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="20" style="1" width="8.54"/>
   </cols>
   <sheetData>
@@ -1217,10 +1336,10 @@
         <v>24</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>27</v>
@@ -1235,11 +1354,13 @@
         <v>29</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="O8" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="P8" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Q8" s="1" t="s">
         <v>31</v>
@@ -1253,19 +1374,19 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>39</v>
@@ -1294,7 +1415,7 @@
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="Q9" s="1" t="s">
         <v>31</v>
@@ -1308,19 +1429,19 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>39</v>
@@ -1329,10 +1450,10 @@
         <v>24</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>27</v>
@@ -1351,7 +1472,7 @@
       </c>
       <c r="O10" s="2"/>
       <c r="P10" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="Q10" s="1" t="s">
         <v>31</v>
@@ -1365,19 +1486,19 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>39</v>
@@ -1386,10 +1507,10 @@
         <v>24</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>27</v>
@@ -1408,7 +1529,7 @@
       </c>
       <c r="O11" s="2"/>
       <c r="P11" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="Q11" s="1" t="s">
         <v>31</v>
@@ -1422,19 +1543,19 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>39</v>
@@ -1465,7 +1586,7 @@
       </c>
       <c r="O12" s="2"/>
       <c r="P12" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="Q12" s="1" t="s">
         <v>31</v>
@@ -1479,13 +1600,13 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>70</v>
@@ -1520,10 +1641,10 @@
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="R13" s="1" t="s">
         <v>41</v>
@@ -1534,19 +1655,19 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>39</v>
@@ -1564,7 +1685,7 @@
         <v>27</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>29</v>
@@ -1575,7 +1696,7 @@
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="Q14" s="1" t="s">
         <v>31</v>
@@ -1589,19 +1710,19 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>39</v>
@@ -1619,7 +1740,7 @@
         <v>27</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>29</v>
@@ -1630,7 +1751,7 @@
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Q15" s="1" t="s">
         <v>31</v>
@@ -1644,19 +1765,19 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>39</v>
@@ -1674,7 +1795,7 @@
         <v>27</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>29</v>
@@ -1697,19 +1818,19 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>39</v>
@@ -1727,7 +1848,7 @@
         <v>27</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>29</v>
@@ -1738,7 +1859,7 @@
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Q17" s="1" t="s">
         <v>31</v>
@@ -1752,19 +1873,19 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>39</v>
@@ -1782,7 +1903,7 @@
         <v>27</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>29</v>
@@ -1795,7 +1916,7 @@
       </c>
       <c r="O18" s="2"/>
       <c r="P18" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q18" s="1" t="s">
         <v>31</v>
@@ -1809,19 +1930,19 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>39</v>
@@ -1839,7 +1960,7 @@
         <v>27</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>29</v>
@@ -1850,7 +1971,7 @@
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="Q19" s="1" t="s">
         <v>31</v>
@@ -1864,25 +1985,25 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>39</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>25</v>
@@ -1891,7 +2012,7 @@
         <v>26</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>28</v>
@@ -1907,10 +2028,10 @@
       </c>
       <c r="O20" s="2"/>
       <c r="P20" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="R20" s="1" t="s">
         <v>41</v>
@@ -1921,25 +2042,25 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>39</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>25</v>
@@ -1948,7 +2069,7 @@
         <v>26</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>28</v>
@@ -1962,10 +2083,10 @@
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="R21" s="1" t="s">
         <v>41</v>
@@ -1976,25 +2097,25 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>39</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>25</v>
@@ -2003,7 +2124,7 @@
         <v>26</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>28</v>
@@ -2019,10 +2140,10 @@
       </c>
       <c r="O22" s="2"/>
       <c r="P22" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="R22" s="1" t="s">
         <v>41</v>
@@ -2033,25 +2154,25 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>39</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>25</v>
@@ -2060,7 +2181,7 @@
         <v>26</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>28</v>
@@ -2074,7 +2195,7 @@
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="Q23" s="1" t="s">
         <v>31</v>
@@ -2088,25 +2209,25 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>39</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>25</v>
@@ -2115,7 +2236,7 @@
         <v>26</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="K24" s="2" t="s">
         <v>28</v>
@@ -2129,7 +2250,7 @@
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="Q24" s="1" t="s">
         <v>31</v>
@@ -2143,16 +2264,16 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E25" s="2" t="n">
         <v>0</v>
@@ -2161,19 +2282,19 @@
         <v>23</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>29</v>
@@ -2188,27 +2309,27 @@
         <v>31</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="S25" s="1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>39</v>
@@ -2226,7 +2347,7 @@
         <v>27</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>29</v>
@@ -2237,7 +2358,7 @@
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="Q26" s="1" t="s">
         <v>31</v>
@@ -2251,16 +2372,16 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E27" s="2" t="n">
         <v>0</v>
@@ -2269,7 +2390,7 @@
         <v>23</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>25</v>
@@ -2278,10 +2399,10 @@
         <v>26</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>29</v>
@@ -2296,27 +2417,27 @@
         <v>31</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>39</v>
@@ -2334,7 +2455,7 @@
         <v>27</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L28" s="2" t="s">
         <v>29</v>
@@ -2347,7 +2468,7 @@
       </c>
       <c r="O28" s="2"/>
       <c r="P28" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="Q28" s="1" t="s">
         <v>31</v>
@@ -2356,18 +2477,18 @@
         <v>41</v>
       </c>
       <c r="S28" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D29" s="2" t="n">
         <v>0</v>
@@ -2379,7 +2500,7 @@
         <v>23</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>25</v>
@@ -2388,10 +2509,10 @@
         <v>26</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="L29" s="2" t="s">
         <v>29</v>
@@ -2402,9 +2523,9 @@
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
-      <c r="Q29" s="0"/>
-      <c r="R29" s="3" t="s">
-        <v>195</v>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="4" t="s">
+        <v>198</v>
       </c>
       <c r="S29" s="1" t="s">
         <v>33</v>
@@ -2412,25 +2533,25 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>25</v>
@@ -2439,10 +2560,10 @@
         <v>26</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="L30" s="2" t="s">
         <v>29</v>
@@ -2454,16 +2575,16 @@
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
       <c r="R30" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="S30" s="1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
